--- a/biology/Botanique/Henri_Jean_Maresquelle/Henri_Jean_Maresquelle.xlsx
+++ b/biology/Botanique/Henri_Jean_Maresquelle/Henri_Jean_Maresquelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Jean Maresquelle, né le 30 novembre 1898 à Nancy (Meurthe-et-Moselle)[1] et mort accidentellement le 29 octobre 1977 à Vendenheim (Bas-Rhin)[2] est un botaniste et mycologue français, professeur à l'Université de Strasbourg.
-Agrégé de sciences naturelles (1923)[3], il est directeur du Jardin botanique de l'université de Strasbourg de 1945 à 1969. Dès 1975, il anime des tables rondes de biologie théorique qui seront à l'origine de la Société francophone de biologie théorique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Jean Maresquelle, né le 30 novembre 1898 à Nancy (Meurthe-et-Moselle) et mort accidentellement le 29 octobre 1977 à Vendenheim (Bas-Rhin) est un botaniste et mycologue français, professeur à l'Université de Strasbourg.
+Agrégé de sciences naturelles (1923), il est directeur du Jardin botanique de l'université de Strasbourg de 1945 à 1969. Dès 1975, il anime des tables rondes de biologie théorique qui seront à l'origine de la Société francophone de biologie théorique.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Henri Jean Maresquelle, Études sur le parasitisme des Urédinées. Thèse prés. à la faculté des Sciences de Paris. Soutenue le 29 juin 1929 devant la Commission d'examen: M. Molinard, M. Joleaud, M. Robert-Lévy. Série A no 1201. N° d'ordre 2069.
 Henri Jean Maresquelle (éditeur scientifique), Colloque de morphologie (Tératologie) organisé à Strasbourg les 30 et 31 mars 1963, Paris, Mémoires de la Société botanique de France, 1963, 195 p.
